--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1389109.360761164</v>
+        <v>-1391667.396382899</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12557642.87455484</v>
+        <v>12560720.06231649</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14507436.36834926</v>
+        <v>14507067.89359195</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>133.0081693925645</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>325.8505027800322</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736144</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>42.04518470759555</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842624</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.0233064626824</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H3" t="n">
-        <v>89.82709352349998</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736456</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.5862749777979</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T3" t="n">
-        <v>190.8126513536573</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7887366401506</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104688</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U4" t="n">
-        <v>83.29015303820913</v>
+        <v>184.5058464357644</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>184.4018648396066</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>336.3722257007478</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>80.99893602775354</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>83.35317719075455</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>169.5411471544291</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>253.8293786295312</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>240.3635537979627</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.31295882106614</v>
       </c>
       <c r="U10" t="n">
-        <v>90.12084770937717</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>115.7228684476118</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381700011</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>53.7694747549384</v>
       </c>
       <c r="H16" t="n">
-        <v>134.5665975534137</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187878</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U22" t="n">
-        <v>82.52140782073364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673025</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8913819999784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>170.1899010721187</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673025</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1656.993223436214</v>
+        <v>1632.860867566732</v>
       </c>
       <c r="C2" t="n">
-        <v>1522.641537181099</v>
+        <v>1263.898350626321</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.375838574348</v>
+        <v>1263.898350626321</v>
       </c>
       <c r="E2" t="n">
-        <v>778.587585976104</v>
+        <v>934.756428626288</v>
       </c>
       <c r="F2" t="n">
-        <v>778.587585976104</v>
+        <v>523.7705238366804</v>
       </c>
       <c r="G2" t="n">
-        <v>363.470134036005</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="H2" t="n">
-        <v>65.42565911316225</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316225</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J2" t="n">
-        <v>250.561327272562</v>
+        <v>254.0744928369595</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183933</v>
+        <v>586.3643121319024</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887443</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064179</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746176</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767912</v>
+        <v>2612.501248106874</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303801</v>
+        <v>3005.546484356409</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478300997</v>
+        <v>3252.534341412641</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658113</v>
+        <v>3310.796077475973</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007342</v>
+        <v>3200.225838528232</v>
       </c>
       <c r="T2" t="n">
-        <v>3159.966809007342</v>
+        <v>2994.194385163531</v>
       </c>
       <c r="U2" t="n">
-        <v>3159.966809007342</v>
+        <v>2740.662926950236</v>
       </c>
       <c r="V2" t="n">
-        <v>3159.966809007342</v>
+        <v>2409.600039606666</v>
       </c>
       <c r="W2" t="n">
-        <v>2807.198153737228</v>
+        <v>2409.600039606666</v>
       </c>
       <c r="X2" t="n">
-        <v>2433.732395476148</v>
+        <v>2409.600039606666</v>
       </c>
       <c r="Y2" t="n">
-        <v>2043.593063500336</v>
+        <v>2019.460707630854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3149953501908</v>
+        <v>931.3156003142904</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8619660690638</v>
+        <v>756.8625710331634</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9275564078125</v>
+        <v>607.928161371912</v>
       </c>
       <c r="E3" t="n">
-        <v>448.690101402357</v>
+        <v>448.6907063664564</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1555434292419</v>
+        <v>302.1561483933415</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841082</v>
+        <v>165.7864839520676</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158292</v>
+        <v>75.22119252365796</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316225</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056103</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K3" t="n">
-        <v>419.000857536038</v>
+        <v>396.5106591183472</v>
       </c>
       <c r="L3" t="n">
-        <v>780.5750497221832</v>
+        <v>761.8119001858313</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.871945822813</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N3" t="n">
-        <v>1689.257302559077</v>
+        <v>1679.30784629592</v>
       </c>
       <c r="O3" t="n">
-        <v>2094.603797632937</v>
+        <v>2088.738397943177</v>
       </c>
       <c r="P3" t="n">
-        <v>2400.597029664692</v>
+        <v>2398.009445431871</v>
       </c>
       <c r="Q3" t="n">
-        <v>2555.226205362918</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R3" t="n">
-        <v>2555.226205362918</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.341079122718</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.601027250337</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.53159630069</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.379488068947</v>
+        <v>1769.380093033047</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.142131340745</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.290631135213</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.530332370259</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2012.619234828115</v>
+        <v>697.663485449734</v>
       </c>
       <c r="C4" t="n">
-        <v>1843.683051900208</v>
+        <v>528.7273025218271</v>
       </c>
       <c r="D4" t="n">
-        <v>1843.683051900208</v>
+        <v>528.7273025218271</v>
       </c>
       <c r="E4" t="n">
-        <v>1695.769958317815</v>
+        <v>380.814208939434</v>
       </c>
       <c r="F4" t="n">
-        <v>1695.769958317815</v>
+        <v>233.9242614415236</v>
       </c>
       <c r="G4" t="n">
-        <v>1528.046935440982</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="H4" t="n">
-        <v>1528.046935440982</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I4" t="n">
-        <v>1430.114202621743</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J4" t="n">
-        <v>1473.838067726842</v>
+        <v>110.9572157501789</v>
       </c>
       <c r="K4" t="n">
-        <v>1675.526646248732</v>
+        <v>314.3177428179431</v>
       </c>
       <c r="L4" t="n">
-        <v>1989.145022412492</v>
+        <v>630.0756374886843</v>
       </c>
       <c r="M4" t="n">
-        <v>2330.200750630623</v>
+        <v>973.3871879897969</v>
       </c>
       <c r="N4" t="n">
-        <v>2668.581552350615</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O4" t="n">
-        <v>2965.114695744363</v>
+        <v>1612.537390213392</v>
       </c>
       <c r="P4" t="n">
-        <v>3195.32934537234</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q4" t="n">
-        <v>3271.282955658113</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="R4" t="n">
-        <v>3271.282955658113</v>
+        <v>1831.57327976542</v>
       </c>
       <c r="S4" t="n">
-        <v>3271.282955658113</v>
+        <v>1831.57327976542</v>
       </c>
       <c r="T4" t="n">
-        <v>3271.282955658113</v>
+        <v>1609.783150377129</v>
       </c>
       <c r="U4" t="n">
-        <v>3187.15148794275</v>
+        <v>1423.413608522821</v>
       </c>
       <c r="V4" t="n">
-        <v>2932.466999736863</v>
+        <v>1168.729120316934</v>
       </c>
       <c r="W4" t="n">
-        <v>2643.049829699902</v>
+        <v>879.3119502799738</v>
       </c>
       <c r="X4" t="n">
-        <v>2415.060278801885</v>
+        <v>879.3119502799738</v>
       </c>
       <c r="Y4" t="n">
-        <v>2194.267699658355</v>
+        <v>879.3119502799738</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1582.86133602681</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1122.105786004751</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>763.8400873980007</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1969.461176090932</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1078.483131735662</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C7" t="n">
-        <v>909.5469488077556</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D7" t="n">
-        <v>759.4303093954198</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E7" t="n">
-        <v>611.5172158130267</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>464.6272683151163</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>296.9244316898353</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7072449076931</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1480.924175709432</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1480.924175709432</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1480.924175709432</v>
+        <v>708.9705521677568</v>
       </c>
       <c r="Y7" t="n">
-        <v>1260.131596565902</v>
+        <v>708.9705521677568</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964587</v>
+        <v>2232.598233480554</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024176</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.109788417425</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>731.321535819181</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>320.3356310295734</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>309.303584914974</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265601</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.077176004521</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028709</v>
+        <v>2619.198073544676</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1891.624892713678</v>
       </c>
       <c r="U10" t="n">
-        <v>1746.43293154362</v>
+        <v>1602.522025839322</v>
       </c>
       <c r="V10" t="n">
-        <v>1746.43293154362</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="W10" t="n">
-        <v>1457.015761506659</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="X10" t="n">
-        <v>1229.026210608642</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y10" t="n">
-        <v>1008.233631465111</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,25 +5027,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098232</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819163</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
         <v>697.5276345711974</v>
@@ -5191,58 +5191,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.78619868161</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190824</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851667</v>
+        <v>985.7836617409704</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572598</v>
+        <v>816.8474788130635</v>
       </c>
       <c r="D16" t="n">
-        <v>377.6556127449242</v>
+        <v>666.7308394007277</v>
       </c>
       <c r="E16" t="n">
-        <v>229.7425191625312</v>
+        <v>518.8177458183346</v>
       </c>
       <c r="F16" t="n">
-        <v>229.7425191625312</v>
+        <v>371.9277983204242</v>
       </c>
       <c r="G16" t="n">
-        <v>229.7425191625312</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1905.631426649718</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1388.22470571474</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154064</v>
+        <v>1167.43212657121</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011932</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>550.6376870732863</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>550.6376870732863</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1894.106123115828</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1639.421634909941</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.00446487298</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1122.014913974963</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.2223348314329</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400714</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400714</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400714</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,22 +6382,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2092.199258253227</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1803.124031597425</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1548.439543391538</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1259.022373354577</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138413</v>
+        <v>1031.03282245656</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703112</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925703</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490402</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,28 +6710,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,7 +6862,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,16 +7570,16 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380719</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311315</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7792,7 +7792,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.95355500662293</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780395</v>
+        <v>0.5463950602909335</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>232.2647223784431</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>56.07986729222961</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962375</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9987361002815</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004823</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.830723471637</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.1172987294701</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>202.9227752249874</v>
+        <v>101.7062889462515</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22790,7 +22790,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>45.55814437151397</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.698463840213662e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-2.779641435508475e-13</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.89260457060055</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>213.918890572244</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.833200258261058e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>111.7546635373304</v>
       </c>
       <c r="H16" t="n">
-        <v>5.728115292810116</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462199</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U22" t="n">
-        <v>203.6630665685105</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>41.54258064659074</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>47.21554925516952</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-7.531752999057062e-13</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1061751.811498829</v>
+        <v>1066788.109676673</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1284203.678624874</v>
+        <v>1278582.714772316</v>
       </c>
     </row>
     <row r="4">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154573</v>
+        <v>136126.9983738518</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728567</v>
+        <v>163483.0683144622</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380013</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
@@ -26341,19 +26341,19 @@
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728569</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1313514.533081206</v>
+        <v>1324592.616629868</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074692</v>
+        <v>3947.344390015035</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.813903054426191e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125527</v>
+        <v>216562.4822237809</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022931</v>
+        <v>952.8885570182491</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13002.08618742627</v>
+        <v>12422.53326902072</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>89504.10908220254</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26436,7 +26436,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26445,19 +26445,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491157</v>
+        <v>20377.77944491159</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491155</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.77944491163</v>
       </c>
       <c r="O4" t="n">
         <v>20377.77944491159</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106866.6399031115</v>
+        <v>107642.9682537726</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1297981.546456286</v>
+        <v>-1308882.136723797</v>
       </c>
       <c r="C6" t="n">
-        <v>-49778.59386245295</v>
+        <v>-37911.39178987864</v>
       </c>
       <c r="D6" t="n">
-        <v>-35299.54154170601</v>
+        <v>-35299.54154170604</v>
       </c>
       <c r="E6" t="n">
-        <v>-277492.5918750791</v>
+        <v>-277527.3298005153</v>
       </c>
       <c r="F6" t="n">
-        <v>47919.86993227601</v>
+        <v>47885.13200684033</v>
       </c>
       <c r="G6" t="n">
-        <v>47919.86993227596</v>
+        <v>47885.13200684049</v>
       </c>
       <c r="H6" t="n">
-        <v>47919.86993227608</v>
+        <v>47885.13200684034</v>
       </c>
       <c r="I6" t="n">
-        <v>47919.86993227583</v>
+        <v>47885.13200684023</v>
       </c>
       <c r="J6" t="n">
-        <v>-166058.0194802767</v>
+        <v>-168677.3502169406</v>
       </c>
       <c r="K6" t="n">
-        <v>44424.62809125298</v>
+        <v>46932.24344982201</v>
       </c>
       <c r="L6" t="n">
-        <v>21238.740680398</v>
+        <v>21238.74068039803</v>
       </c>
       <c r="M6" t="n">
-        <v>-44388.56926148185</v>
+        <v>-44388.5692614821</v>
       </c>
       <c r="N6" t="n">
-        <v>40666.4586740298</v>
+        <v>40666.45867402968</v>
       </c>
       <c r="O6" t="n">
-        <v>40666.4586740298</v>
+        <v>40666.45867403009</v>
       </c>
       <c r="P6" t="n">
-        <v>40666.45867402988</v>
+        <v>40666.45867402974</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145282</v>
+        <v>827.6990193689932</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209662</v>
+        <v>3.021293431011372</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145282</v>
+        <v>827.6990193689932</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776433</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145277</v>
+        <v>827.6990193689932</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776433</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145282</v>
+        <v>827.6990193689932</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776433</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>180.871026931401</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>305.2390026283001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>12.99924321908354</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>56.16850823460803</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>111.4435131414763</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>54.24421058935781</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>184.2359904551031</v>
       </c>
       <c r="U10" t="n">
-        <v>196.0909904962357</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.11336974098144e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.979039320256561e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436989</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215282</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907822</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402217</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377395</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528656</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573094</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006286</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365707</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551574</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231327</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R2" t="n">
-        <v>272.4001614071777</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198297</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339793</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U2" t="n">
-        <v>0.346916807554959</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528245</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H3" t="n">
-        <v>22.40835071299648</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467862</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863111</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217036</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335561</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277049</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290545</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594549</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736787</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498862</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871836</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612603997</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164282</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242267</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.94518671039397</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695731</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I4" t="n">
-        <v>58.4970694362114</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J4" t="n">
-        <v>137.5247004248537</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166812</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889363</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120293</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N4" t="n">
-        <v>297.6666172369247</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564132</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643761</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.8828617221714</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553248</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S4" t="n">
-        <v>33.89929930750218</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T4" t="n">
-        <v>8.31125230804696</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1061010932942167</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328816</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496626</v>
       </c>
       <c r="O15" t="n">
-        <v>491.5977325265315</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32479,7 +32479,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175652</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159428</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135354</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K2" t="n">
-        <v>331.524134692759</v>
+        <v>335.6462821161039</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828784</v>
+        <v>453.6733997667469</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300367</v>
+        <v>536.7884014978928</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040377</v>
+        <v>550.1346115329961</v>
       </c>
       <c r="O2" t="n">
-        <v>500.546529314884</v>
+        <v>506.006552833649</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998879</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486832</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304561</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964444</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K3" t="n">
-        <v>264.7752623539675</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536819</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056865</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457212</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150104</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593485</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.1910865638647</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.1655203081809</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907983</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492524</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738699</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161533</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704529</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292696</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047706</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884371</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663293</v>
       </c>
       <c r="O15" t="n">
-        <v>349.0014880820871</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36127,7 +36127,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902925</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
